--- a/src/16t/assets/LEG.xlsx
+++ b/src/16t/assets/LEG.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
-  <si>
-    <t xml:space="preserve">二级BOM 前支腿 10T，4.5˂S≤11米，4.4˂H0≤6m（图号：Z61031） </t>
-  </si>
-  <si>
-    <t>7020-01141</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+  <si>
+    <t>二级BOM 前支腿 2T，14˂S≤17米，4.5˂H0≤4.6m（图号：Z60532）</t>
+  </si>
+  <si>
+    <t>7020-01612</t>
   </si>
   <si>
     <t>前支腿</t>
@@ -31,7 +31,7 @@
     <t>下法兰</t>
   </si>
   <si>
-    <t>板 12×330×330</t>
+    <t>板 16×370×370</t>
   </si>
   <si>
     <t>件</t>
@@ -46,13 +46,13 @@
     <t>00</t>
   </si>
   <si>
-    <t>7020-01219</t>
+    <t>7020-01690</t>
   </si>
   <si>
     <t>左腹板</t>
   </si>
   <si>
-    <t>板 5×208×L1</t>
+    <t>板 6×216×L1</t>
   </si>
   <si>
     <t>是</t>
@@ -61,25 +61,25 @@
     <t>Q235B</t>
   </si>
   <si>
-    <t>7020-01220</t>
+    <t>7020-01691</t>
   </si>
   <si>
     <t>右腹板</t>
   </si>
   <si>
-    <t>板 5×208×L2</t>
-  </si>
-  <si>
-    <t>7020-01221</t>
+    <t>板 6×216×L2</t>
+  </si>
+  <si>
+    <t>7020-01692</t>
   </si>
   <si>
     <t>盖板</t>
   </si>
   <si>
-    <t>板 5×(上570，下270）×F</t>
-  </si>
-  <si>
-    <t>7020-01222</t>
+    <t>板 6×(上760，下280）×F</t>
+  </si>
+  <si>
+    <t>7020-01693</t>
   </si>
   <si>
     <t>加强筋</t>
@@ -88,22 +88,22 @@
     <t>板 5×50×E</t>
   </si>
   <si>
-    <t>7020-01223</t>
+    <t>7020-01694</t>
   </si>
   <si>
     <t>隔板（放样）</t>
   </si>
   <si>
-    <t>板 5×210×L3(总长)</t>
-  </si>
-  <si>
-    <t>7020-01224</t>
+    <t>板 5×318×L3(总长)</t>
+  </si>
+  <si>
+    <t>7020-01695</t>
   </si>
   <si>
     <t>上法兰</t>
   </si>
   <si>
-    <t>板 12×290×730</t>
+    <t>板 16×315×850</t>
   </si>
   <si>
     <t>7020-00107</t>
@@ -112,13 +112,31 @@
     <t>三角筋</t>
   </si>
   <si>
-    <t>板 5×50×100</t>
+    <t>板 8×51×100</t>
   </si>
   <si>
     <t>7020-00108</t>
   </si>
   <si>
-    <t>板 5×62×100</t>
+    <t>板 8×40×100</t>
+  </si>
+  <si>
+    <t>7020-00094</t>
+  </si>
+  <si>
+    <t>筋板</t>
+  </si>
+  <si>
+    <t>7020-00095</t>
+  </si>
+  <si>
+    <t>板 8×65×100</t>
+  </si>
+  <si>
+    <t>7020-00096</t>
+  </si>
+  <si>
+    <t>板 8×77×100</t>
   </si>
 </sst>
 </file>
@@ -154,6 +172,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -162,50 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -222,6 +240,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -253,7 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -269,13 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,169 +343,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +553,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -545,21 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +609,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -614,15 +641,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -639,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,165 +669,167 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,506 +1151,640 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K11" sqref="K11:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="20.7777777777778" customWidth="1"/>
-    <col min="14" max="14" width="19.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="13.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="19.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" style="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="8" max="13" width="8.88888888888889" style="1"/>
+    <col min="14" max="14" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:21">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="3">
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:21">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="9">
-        <v>10.6</v>
-      </c>
-      <c r="M2" s="9">
-        <f t="shared" ref="M2:M10" si="0">I2*L2</f>
-        <v>10.6</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="11">
+        <v>12.36</v>
+      </c>
+      <c r="M2" s="11">
+        <f t="shared" ref="M2:M13" si="0">I2*L2</f>
+        <v>12.36</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="5" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:21">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="9">
-        <v>33.6</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="L3" s="11">
+        <v>32.6</v>
+      </c>
+      <c r="M3" s="11">
         <f t="shared" si="0"/>
-        <v>33.6</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
+        <v>32.6</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="5" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="3">
+    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:21">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="9">
-        <v>33.7</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="L4" s="11">
+        <v>32.9</v>
+      </c>
+      <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>33.7</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6" t="s">
+        <v>32.9</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="5" t="s">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="3">
+    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:21">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="9">
-        <v>67</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="L5" s="11">
+        <v>130.85</v>
+      </c>
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
+        <v>261.7</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="5" t="s">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="3">
+    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:21">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>10</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="9">
-        <v>17.4</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="L6" s="11">
+        <v>16.8</v>
+      </c>
+      <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="5" t="s">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="3">
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="1:21">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="9">
-        <v>9.1</v>
-      </c>
-      <c r="M7" s="9">
+      <c r="L7" s="11">
+        <v>15.2</v>
+      </c>
+      <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>9.1</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6" t="s">
+        <v>15.2</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="5" t="s">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="3">
+    <row r="8" s="1" customFormat="1" ht="15.6" spans="1:21">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="9">
-        <v>14.6</v>
-      </c>
-      <c r="M8" s="9">
+      <c r="K8" s="8"/>
+      <c r="L8" s="11">
+        <v>21.43</v>
+      </c>
+      <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>14.6</v>
-      </c>
-      <c r="N8" s="6" t="s">
+        <v>21.43</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="5" t="s">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="3">
+    <row r="9" s="1" customFormat="1" ht="15.6" spans="1:21">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15.6" spans="1:21">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:19">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:19">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="K12" s="8"/>
+      <c r="L12" s="11">
+        <v>0.28</v>
+      </c>
+      <c r="M12" s="11">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="N9" s="6" t="s">
+        <v>1.4</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="5" t="s">
+      <c r="S12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="3">
+    <row r="13" s="1" customFormat="1" spans="1:19">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="11">
+        <v>0.29</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.58</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.34</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
